--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnc-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnc-Itgb3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.21384166666667</v>
+        <v>22.14384766666667</v>
       </c>
       <c r="H2">
-        <v>51.641525</v>
+        <v>66.431543</v>
       </c>
       <c r="I2">
-        <v>0.04508658556266565</v>
+        <v>0.05562336639723622</v>
       </c>
       <c r="J2">
-        <v>0.04508658556266566</v>
+        <v>0.0556233663972362</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N2">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O2">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P2">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q2">
-        <v>113.7865632184306</v>
+        <v>135.3376978831628</v>
       </c>
       <c r="R2">
-        <v>1024.079068965875</v>
+        <v>1218.039280948465</v>
       </c>
       <c r="S2">
-        <v>0.02958319354264483</v>
+        <v>0.03371618609738117</v>
       </c>
       <c r="T2">
-        <v>0.02958319354264484</v>
+        <v>0.03371618609738115</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.21384166666667</v>
+        <v>22.14384766666667</v>
       </c>
       <c r="H3">
-        <v>51.641525</v>
+        <v>66.431543</v>
       </c>
       <c r="I3">
-        <v>0.04508658556266565</v>
+        <v>0.05562336639723622</v>
       </c>
       <c r="J3">
-        <v>0.04508658556266566</v>
+        <v>0.0556233663972362</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>8.262912</v>
       </c>
       <c r="O3">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P3">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q3">
-        <v>47.41215295786667</v>
+        <v>60.99088820369067</v>
       </c>
       <c r="R3">
-        <v>426.7093766208</v>
+        <v>548.9179938332161</v>
       </c>
       <c r="S3">
-        <v>0.01232661271729898</v>
+        <v>0.01519443709390919</v>
       </c>
       <c r="T3">
-        <v>0.01232661271729898</v>
+        <v>0.01519443709390919</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.21384166666667</v>
+        <v>22.14384766666667</v>
       </c>
       <c r="H4">
-        <v>51.641525</v>
+        <v>66.431543</v>
       </c>
       <c r="I4">
-        <v>0.04508658556266565</v>
+        <v>0.05562336639723622</v>
       </c>
       <c r="J4">
-        <v>0.04508658556266566</v>
+        <v>0.0556233663972362</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N4">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O4">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P4">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q4">
-        <v>3.946852734752778</v>
+        <v>12.58742662379234</v>
       </c>
       <c r="R4">
-        <v>35.521674612775</v>
+        <v>113.286839614131</v>
       </c>
       <c r="S4">
-        <v>0.001026136171389314</v>
+        <v>0.003135859595463917</v>
       </c>
       <c r="T4">
-        <v>0.001026136171389314</v>
+        <v>0.003135859595463916</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.21384166666667</v>
+        <v>22.14384766666667</v>
       </c>
       <c r="H5">
-        <v>51.641525</v>
+        <v>66.431543</v>
       </c>
       <c r="I5">
-        <v>0.04508658556266565</v>
+        <v>0.05562336639723622</v>
       </c>
       <c r="J5">
-        <v>0.04508658556266566</v>
+        <v>0.0556233663972362</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N5">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O5">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P5">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q5">
-        <v>4.573402143736111</v>
+        <v>8.169227087078557</v>
       </c>
       <c r="R5">
-        <v>41.160619293625</v>
+        <v>73.52304378370701</v>
       </c>
       <c r="S5">
-        <v>0.001189031788461448</v>
+        <v>0.002035169690690995</v>
       </c>
       <c r="T5">
-        <v>0.001189031788461449</v>
+        <v>0.002035169690690994</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.21384166666667</v>
+        <v>22.14384766666667</v>
       </c>
       <c r="H6">
-        <v>51.641525</v>
+        <v>66.431543</v>
       </c>
       <c r="I6">
-        <v>0.04508658556266565</v>
+        <v>0.05562336639723622</v>
       </c>
       <c r="J6">
-        <v>0.04508658556266566</v>
+        <v>0.0556233663972362</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N6">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q6">
-        <v>3.69866930355</v>
+        <v>6.18848205714289</v>
       </c>
       <c r="R6">
-        <v>33.28802373195</v>
+        <v>55.696338514286</v>
       </c>
       <c r="S6">
-        <v>0.000961611342871071</v>
+        <v>0.001541713919790948</v>
       </c>
       <c r="T6">
-        <v>0.0009616113428710713</v>
+        <v>0.001541713919790947</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1040.241456</v>
       </c>
       <c r="I7">
-        <v>0.9082019830315988</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="J7">
-        <v>0.908201983031599</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N7">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O7">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P7">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q7">
-        <v>2292.06051129544</v>
+        <v>2119.232484147919</v>
       </c>
       <c r="R7">
-        <v>20628.54460165896</v>
+        <v>19073.09235733128</v>
       </c>
       <c r="S7">
-        <v>0.5959092866434648</v>
+        <v>0.5279566442812677</v>
       </c>
       <c r="T7">
-        <v>0.5959092866434651</v>
+        <v>0.5279566442812675</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1040.241456</v>
       </c>
       <c r="I8">
-        <v>0.9082019830315988</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="J8">
-        <v>0.908201983031599</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>8.262912</v>
       </c>
       <c r="O8">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P8">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q8">
         <v>955.0470677422079</v>
@@ -948,10 +948,10 @@
         <v>8595.423609679872</v>
       </c>
       <c r="S8">
-        <v>0.248301218071914</v>
+        <v>0.2379273858755396</v>
       </c>
       <c r="T8">
-        <v>0.2483012180719142</v>
+        <v>0.2379273858755396</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1040.241456</v>
       </c>
       <c r="I9">
-        <v>0.9082019830315988</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="J9">
-        <v>0.908201983031599</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N9">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O9">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P9">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q9">
-        <v>79.50345841678399</v>
+        <v>197.104604335728</v>
       </c>
       <c r="R9">
-        <v>715.5311257510559</v>
+        <v>1773.941439021552</v>
       </c>
       <c r="S9">
-        <v>0.02066998186014618</v>
+        <v>0.04910394978176189</v>
       </c>
       <c r="T9">
-        <v>0.02066998186014619</v>
+        <v>0.04910394978176188</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1040.241456</v>
       </c>
       <c r="I10">
-        <v>0.9082019830315988</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="J10">
-        <v>0.908201983031599</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N10">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O10">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P10">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q10">
-        <v>92.12436125527999</v>
+        <v>127.920687909616</v>
       </c>
       <c r="R10">
-        <v>829.11925129752</v>
+        <v>1151.286191186544</v>
       </c>
       <c r="S10">
-        <v>0.02395127097542958</v>
+        <v>0.0318684135072923</v>
       </c>
       <c r="T10">
-        <v>0.02395127097542959</v>
+        <v>0.0318684135072923</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>1040.241456</v>
       </c>
       <c r="I11">
-        <v>0.9082019830315988</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="J11">
-        <v>0.908201983031599</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N11">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q11">
-        <v>74.504173561632</v>
+        <v>96.904501910368</v>
       </c>
       <c r="R11">
-        <v>670.537562054688</v>
+        <v>872.140517193312</v>
       </c>
       <c r="S11">
-        <v>0.01937022548064407</v>
+        <v>0.02414146443442992</v>
       </c>
       <c r="T11">
-        <v>0.01937022548064408</v>
+        <v>0.02414146443442992</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.042542</v>
+        <v>0.1541363333333333</v>
       </c>
       <c r="H12">
-        <v>0.127626</v>
+        <v>0.462409</v>
       </c>
       <c r="I12">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467397</v>
       </c>
       <c r="J12">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467395</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N12">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O12">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P12">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q12">
-        <v>0.2812102066566667</v>
+        <v>0.9420429921438889</v>
       </c>
       <c r="R12">
-        <v>2.530891859910001</v>
+        <v>8.478386929294999</v>
       </c>
       <c r="S12">
-        <v>7.311140906612632E-05</v>
+        <v>0.0002346877280436483</v>
       </c>
       <c r="T12">
-        <v>7.311140906612636E-05</v>
+        <v>0.0002346877280436482</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.042542</v>
+        <v>0.1541363333333333</v>
       </c>
       <c r="H13">
-        <v>0.127626</v>
+        <v>0.462409</v>
       </c>
       <c r="I13">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467397</v>
       </c>
       <c r="J13">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467395</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>8.262912</v>
       </c>
       <c r="O13">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P13">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q13">
-        <v>0.117173600768</v>
+        <v>0.4245383194453334</v>
       </c>
       <c r="R13">
-        <v>1.054562406912</v>
+        <v>3.820844875008</v>
       </c>
       <c r="S13">
-        <v>3.0463784225156E-05</v>
+        <v>0.000105763680096328</v>
       </c>
       <c r="T13">
-        <v>3.046378422515602E-05</v>
+        <v>0.000105763680096328</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.042542</v>
+        <v>0.1541363333333333</v>
       </c>
       <c r="H14">
-        <v>0.127626</v>
+        <v>0.462409</v>
       </c>
       <c r="I14">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467397</v>
       </c>
       <c r="J14">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467395</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N14">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O14">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P14">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q14">
-        <v>0.009754185747333334</v>
+        <v>0.08761710318366668</v>
       </c>
       <c r="R14">
-        <v>0.08778767172600001</v>
+        <v>0.788553928653</v>
       </c>
       <c r="S14">
-        <v>2.535975748387225E-06</v>
+        <v>2.182772872939102E-05</v>
       </c>
       <c r="T14">
-        <v>2.535975748387226E-06</v>
+        <v>2.182772872939101E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.042542</v>
+        <v>0.1541363333333333</v>
       </c>
       <c r="H15">
-        <v>0.127626</v>
+        <v>0.462409</v>
       </c>
       <c r="I15">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467397</v>
       </c>
       <c r="J15">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467395</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N15">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O15">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P15">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q15">
-        <v>0.01130262946333333</v>
+        <v>0.05686341092677778</v>
       </c>
       <c r="R15">
-        <v>0.10172366517</v>
+        <v>0.511770698341</v>
       </c>
       <c r="S15">
-        <v>2.938553248266406E-06</v>
+        <v>1.416617376330898E-05</v>
       </c>
       <c r="T15">
-        <v>2.938553248266407E-06</v>
+        <v>1.416617376330897E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.042542</v>
+        <v>0.1541363333333333</v>
       </c>
       <c r="H16">
-        <v>0.127626</v>
+        <v>0.462409</v>
       </c>
       <c r="I16">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467397</v>
       </c>
       <c r="J16">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467395</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N16">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q16">
-        <v>0.009140829372000002</v>
+        <v>0.04307607004644445</v>
       </c>
       <c r="R16">
-        <v>0.08226746434800002</v>
+        <v>0.387684630418</v>
       </c>
       <c r="S16">
-        <v>2.376510167839995E-06</v>
+        <v>1.073138391406342E-05</v>
       </c>
       <c r="T16">
-        <v>2.376510167839996E-06</v>
+        <v>1.073138391406341E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.72674266666666</v>
+        <v>28.90575466666667</v>
       </c>
       <c r="H17">
-        <v>53.18022799999999</v>
+        <v>86.717264</v>
       </c>
       <c r="I17">
-        <v>0.04642997858727191</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="J17">
-        <v>0.04642997858727192</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N17">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O17">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P17">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q17">
-        <v>117.1769302957755</v>
+        <v>176.6647942602578</v>
       </c>
       <c r="R17">
-        <v>1054.59237266198</v>
+        <v>1589.98314834232</v>
       </c>
       <c r="S17">
-        <v>0.03046464986396083</v>
+        <v>0.04401185459262525</v>
       </c>
       <c r="T17">
-        <v>0.03046464986396083</v>
+        <v>0.04401185459262524</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.72674266666666</v>
+        <v>28.90575466666667</v>
       </c>
       <c r="H18">
-        <v>53.18022799999999</v>
+        <v>86.717264</v>
       </c>
       <c r="I18">
-        <v>0.04642997858727191</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="J18">
-        <v>0.04642997858727192</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>8.262912</v>
       </c>
       <c r="O18">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P18">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q18">
-        <v>48.82483823377066</v>
+        <v>79.61523570141867</v>
       </c>
       <c r="R18">
-        <v>439.423544103936</v>
+        <v>716.537121312768</v>
       </c>
       <c r="S18">
-        <v>0.01269389458916364</v>
+        <v>0.01983425272545477</v>
       </c>
       <c r="T18">
-        <v>0.01269389458916365</v>
+        <v>0.01983425272545477</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.72674266666666</v>
+        <v>28.90575466666667</v>
       </c>
       <c r="H19">
-        <v>53.18022799999999</v>
+        <v>86.717264</v>
       </c>
       <c r="I19">
-        <v>0.04642997858727191</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="J19">
-        <v>0.04642997858727192</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N19">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O19">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P19">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q19">
-        <v>4.064452556669777</v>
+        <v>16.43115827696533</v>
       </c>
       <c r="R19">
-        <v>36.58007301002799</v>
+        <v>147.880424492688</v>
       </c>
       <c r="S19">
-        <v>0.001056710768195377</v>
+        <v>0.004093434415737982</v>
       </c>
       <c r="T19">
-        <v>0.001056710768195378</v>
+        <v>0.004093434415737982</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.72674266666666</v>
+        <v>28.90575466666667</v>
       </c>
       <c r="H20">
-        <v>53.18022799999999</v>
+        <v>86.717264</v>
       </c>
       <c r="I20">
-        <v>0.04642997858727191</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="J20">
-        <v>0.04642997858727192</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N20">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O20">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P20">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q20">
-        <v>4.70967053625111</v>
+        <v>10.66380502385956</v>
       </c>
       <c r="R20">
-        <v>42.38703482625999</v>
+        <v>95.974245214736</v>
       </c>
       <c r="S20">
-        <v>0.001224459998220958</v>
+        <v>0.002656634775929399</v>
       </c>
       <c r="T20">
-        <v>0.001224459998220959</v>
+        <v>0.002656634775929399</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.72674266666666</v>
+        <v>28.90575466666667</v>
       </c>
       <c r="H21">
-        <v>53.18022799999999</v>
+        <v>86.717264</v>
       </c>
       <c r="I21">
-        <v>0.04642997858727191</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="J21">
-        <v>0.04642997858727192</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N21">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O21">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P21">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q21">
-        <v>3.808874289815999</v>
+        <v>8.078214174680889</v>
       </c>
       <c r="R21">
-        <v>34.279868608344</v>
+        <v>72.70392757212799</v>
       </c>
       <c r="S21">
-        <v>0.0009902633677310985</v>
+        <v>0.002012495976421719</v>
       </c>
       <c r="T21">
-        <v>0.0009902633677310987</v>
+        <v>0.002012495976421718</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.06491533333333334</v>
+        <v>0.1524443333333333</v>
       </c>
       <c r="H22">
-        <v>0.194746</v>
+        <v>0.457333</v>
       </c>
       <c r="I22">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="J22">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N22">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O22">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P22">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q22">
-        <v>0.4291019299011112</v>
+        <v>0.9317019083238887</v>
       </c>
       <c r="R22">
-        <v>3.86191736911</v>
+        <v>8.385317174914999</v>
       </c>
       <c r="S22">
-        <v>0.0001115615507027709</v>
+        <v>0.0002321114916218884</v>
       </c>
       <c r="T22">
-        <v>0.0001115615507027709</v>
+        <v>0.0002321114916218883</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.06491533333333334</v>
+        <v>0.1524443333333333</v>
       </c>
       <c r="H23">
-        <v>0.194746</v>
+        <v>0.457333</v>
       </c>
       <c r="I23">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="J23">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>8.262912</v>
       </c>
       <c r="O23">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P23">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q23">
-        <v>0.1787965622613333</v>
+        <v>0.4198780370773333</v>
       </c>
       <c r="R23">
-        <v>1.609169060352</v>
+        <v>3.778902333696</v>
       </c>
       <c r="S23">
-        <v>4.648504319427257E-05</v>
+        <v>0.0001046026809804609</v>
       </c>
       <c r="T23">
-        <v>4.648504319427259E-05</v>
+        <v>0.0001046026809804609</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.06491533333333334</v>
+        <v>0.1524443333333333</v>
       </c>
       <c r="H24">
-        <v>0.194746</v>
+        <v>0.457333</v>
       </c>
       <c r="I24">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="J24">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N24">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O24">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P24">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q24">
-        <v>0.01488402564955556</v>
+        <v>0.08665530439566667</v>
       </c>
       <c r="R24">
-        <v>0.133956230846</v>
+        <v>0.7798977395609999</v>
       </c>
       <c r="S24">
-        <v>3.869674933755023E-06</v>
+        <v>2.158811931212104E-05</v>
       </c>
       <c r="T24">
-        <v>3.869674933755023E-06</v>
+        <v>2.158811931212104E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.06491533333333334</v>
+        <v>0.1524443333333333</v>
       </c>
       <c r="H25">
-        <v>0.194746</v>
+        <v>0.457333</v>
       </c>
       <c r="I25">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="J25">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N25">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O25">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P25">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q25">
-        <v>0.01724681395222222</v>
+        <v>0.05623920449077777</v>
       </c>
       <c r="R25">
-        <v>0.15522132557</v>
+        <v>0.5061528404169999</v>
       </c>
       <c r="S25">
-        <v>4.483972630082346E-06</v>
+        <v>1.401066749499984E-05</v>
       </c>
       <c r="T25">
-        <v>4.483972630082347E-06</v>
+        <v>1.401066749499984E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.06491533333333334</v>
+        <v>0.1524443333333333</v>
       </c>
       <c r="H26">
-        <v>0.194746</v>
+        <v>0.457333</v>
       </c>
       <c r="I26">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="J26">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N26">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O26">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P26">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q26">
-        <v>0.013948098012</v>
+        <v>0.04260321131844444</v>
       </c>
       <c r="R26">
-        <v>0.125532882108</v>
+        <v>0.383428901866</v>
       </c>
       <c r="S26">
-        <v>3.626344546927489E-06</v>
+        <v>1.061358234716531E-05</v>
       </c>
       <c r="T26">
-        <v>3.62634454692749E-06</v>
+        <v>1.061358234716531E-05</v>
       </c>
     </row>
   </sheetData>
